--- a/DataCompare/Result.xlsx
+++ b/DataCompare/Result.xlsx
@@ -56,7 +56,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -85,12 +85,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0090ee90"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ff0000"/>
+        <fgColor rgb="00ffff00"/>
       </patternFill>
     </fill>
     <fill>
@@ -191,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -208,11 +203,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -624,12 +618,12 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>Source3_GO</t>
+          <t>Source1_GO.xlsx</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Source3_O</t>
+          <t>Source1_O.xlsx</t>
         </is>
       </c>
       <c r="D2" s="8">
@@ -687,12 +681,12 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>Source3_GO</t>
+          <t>Source1_GO.xlsx</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>Source3_O</t>
+          <t>Source1_O.xlsx</t>
         </is>
       </c>
     </row>
@@ -729,7 +723,7 @@
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="4" t="n"/>
     </row>
@@ -740,7 +734,7 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="4" t="n"/>
     </row>
@@ -751,7 +745,7 @@
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="4" t="n"/>
     </row>
@@ -778,7 +772,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
@@ -864,9 +858,9 @@
       <c r="A4" t="n">
         <v>1</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Matched</t>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>Not Matched</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -880,10 +874,10 @@
       <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="F4" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="F4" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7" t="n">
         <v>2</v>
       </c>
       <c r="H4" t="n">
@@ -932,45 +926,30 @@
       </c>
       <c r="B6" s="7" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Not Matched</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Row4</t>
-        </is>
+          <t>Row3</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
       <c r="G6" t="n">
         <v>2</v>
       </c>
-      <c r="I6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" s="10" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Row3</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="H6" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I6" s="7" t="n">
         <v>3</v>
       </c>
     </row>
